--- a/Util/Arquivos/Relatorios/cruzamento_genero_x_idade.xlsx
+++ b/Util/Arquivos/Relatorios/cruzamento_genero_x_idade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Idade</t>
+          <t>Até 18 anos</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade</t>
+          <t>Entre 19 e 24 anos</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Entre 25 e 34 anos</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Entre 35 e 44 anos</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Entre 45 e 54 anos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Entre 55 e 64 anos</t>
         </is>
       </c>
     </row>
@@ -456,163 +476,48 @@
           <t>Feminino</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Entre 19 e 24 anos</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>33.33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.44</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Feminino</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Entre 25 e 34 anos</t>
-        </is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.67</v>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Feminino</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Entre 35 e 44 anos</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+        <v>38.33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36.67</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="G3" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Feminino</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Entre 45 e 54 anos</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Feminino</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Entre 55 e 64 anos</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Até 18 anos</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Entre 19 e 24 anos</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Entre 25 e 34 anos</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Entre 35 e 44 anos</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Entre 45 e 54 anos</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Entre 55 e 64 anos</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
